--- a/story/story.xlsx
+++ b/story/story.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03687B1-0859-460F-A519-55E68C8775DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEE8E37-6857-4472-9CD0-A57C95E5C6EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
     <t>Stranger</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
 23.03 Okeh okeh dre okeh
 &lt;b&gt;Ini yang 23.28 ini kek konsisten jadi kek beneran ini bah&lt;/b&gt;
 Chat berakhir di 23.58 karna u ketiduran wkwkw, Gutnait lah.</t>
+  </si>
+  <si>
+    <t>andre_detail</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
@@ -544,118 +544,118 @@
         <v>45277</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
